--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s0_P5_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2853.964702559068</v>
+        <v>1828.251290639529</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.21912491467956</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.46838631428171</v>
+        <v>13.42459209049212</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.0839639586713</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2412.399999999999</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>408.73</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.361415491259855</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553444</v>
+        <v>20.91835541786301</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>38.23758910225315</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.37739353073907</v>
+        <v>5.427798817200213</v>
       </c>
     </row>
     <row r="7">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.80519234793928</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1112,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1140,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1154,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1168,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1182,13 +1127,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1196,13 +1141,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
         <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1210,13 +1155,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1224,13 +1169,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1238,13 +1183,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -1252,43 +1197,15 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1391,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.86000000000065</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8">
@@ -1402,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83000000000065</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
@@ -1413,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -1424,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.34000000000066</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11">
@@ -1435,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.96000000000065</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>229.35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -1457,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>238.9250000000012</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -1468,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>240.6</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -1479,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>250.7050000000012</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -1490,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>245.3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -1501,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18">
@@ -1512,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19">
@@ -1523,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20">
@@ -1534,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
@@ -1545,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
@@ -1556,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.0599999999994</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1567,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1578,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.7149999999993</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1589,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1600,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.2699999999994</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1611,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>123.0900000000004</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -1622,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>129.0600000000004</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -1633,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>132.8750000000004</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -1644,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>138.7450000000004</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1655,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>134.35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -1666,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>229.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1677,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>238.9250000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1688,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>240.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1699,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>250.7050000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1710,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>245.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.0599999999994</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38">
@@ -1732,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4349999999993</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39">
@@ -1743,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.7149999999993</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40">
@@ -1754,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.8399999999993</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41">
@@ -1765,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.2699999999994</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>129.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1823,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>138.9250000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1834,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>140.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1845,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>150.7050000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1856,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>145.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1867,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>108.0599999999994</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
@@ -1878,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>89.43499999999935</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -1889,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>106.7149999999993</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
@@ -1900,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>93.83999999999935</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -1911,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>103.2699999999994</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.315</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1969,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1980,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1991,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2002,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2013,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2024,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2035,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2046,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2057,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2123,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -2134,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -2145,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -2156,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -2167,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -2178,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2189,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -2200,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -2211,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -2222,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2236,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2263,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2274,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2285,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2296,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2307,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2318,10 +2235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2329,10 +2246,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2340,10 +2257,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2351,10 +2268,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2362,10 +2279,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2373,10 +2290,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2384,10 +2301,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2395,10 +2312,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2406,10 +2323,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2417,34 +2334,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
